--- a/biology/Médecine/Faculté_de_médecine_de_Nantes/Faculté_de_médecine_de_Nantes.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_de_Nantes/Faculté_de_médecine_de_Nantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Nantes</t>
+          <t>Faculté_de_médecine_de_Nantes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté de médecine de Nantes est une unité de formation et de recherche située sur le campus du CHU de Nantes. Elle appartient à l'université de Nantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Nantes</t>
+          <t>Faculté_de_médecine_de_Nantes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'université ducale de Bretagne est fondée par Bertrand Milon le 4 avril 1460, à l’initiative du duc François II de Bretagne, et ce par une bulle pontificale du pape Pie II, donnée à Sienne[1],[2], que l'évêque de Nantes Guillaume de Malestroit promulgua le 21 juillet suivant en qualité de protecteur de la nouvelle institution avec le titre de « chancelier » et la dota 5 000 saluts d'or[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'université ducale de Bretagne est fondée par Bertrand Milon le 4 avril 1460, à l’initiative du duc François II de Bretagne, et ce par une bulle pontificale du pape Pie II, donnée à Sienne que l'évêque de Nantes Guillaume de Malestroit promulgua le 21 juillet suivant en qualité de protecteur de la nouvelle institution avec le titre de « chancelier » et la dota 5 000 saluts d'or,.
 Au XVIIIe siècle, l'accroissement des besoins médicaux, avec l'expansion du port, conduit à la fondation de l'École de chirurgie en 1754, qui va conduire au déclin de la faculté de médecine, avec sa fermeture en 1793.
 En 1808, Napoléon Ier créé l'École secondaire de médecine de Nantes, permettant ainsi dispensation des cours théoriques et pratiques de médecine, chirurgie et pharmacie. En 1841, l'École préparatoire de médecine et de pharmacie est fondée, remplaçant la précédente École secondaire.
 La Faculté mixte de médecine et de pharmacie est recrée en 1956.
-Les travaux pour de nouveaux locaux pour la faculté de médecine ont commencé en 2000 quai de Tourville et se sont terminés en 2011[5]. Ils accueillent aujourd'hui l'IRSUN (Institut de Recherche en Santé de l'Université de Nantes).
+Les travaux pour de nouveaux locaux pour la faculté de médecine ont commencé en 2000 quai de Tourville et se sont terminés en 2011. Ils accueillent aujourd'hui l'IRSUN (Institut de Recherche en Santé de l'Université de Nantes).
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Nantes</t>
+          <t>Faculté_de_médecine_de_Nantes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Nantes</t>
+          <t>Faculté_de_médecine_de_Nantes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,7 +598,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Nantes</t>
+          <t>Faculté_de_médecine_de_Nantes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,7 +618,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Doyens de la faculté et directeurs de l'école
+          <t>Doyens de la faculté et directeurs de l'école</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 François Boux
 François Bonamy
 1808-1816 : Guillaume Laennec
@@ -621,8 +645,44 @@
 1973-1989 : Paul Malvy
 2005-2014 : Jean-Michel Rogez
 2014-2024 : Pascale Jolliet
-2024- : Antoine Hamel[6]
-Enseignants
+2024- : Antoine Hamel
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Nantes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Nantes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités liées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Enseignants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Alfred Boiffin
 François Bonamy
 Julien Bureau
@@ -637,7 +697,43 @@
 Stéphane Leduc
 Jean-Paul Soulillou
 Ambroise Viaud Grand-Marais
-Anciens étudiants
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Nantes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Nantes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités liées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Anciens étudiants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jean Alexandre Barré
 Philippe Boënnec
 Alfred Boiffin
